--- a/appdata/order_history.xlsx
+++ b/appdata/order_history.xlsx
@@ -1,57 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\내 드라이브\Inventory data\appdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1721FF-3CEC-4FCB-88D1-4C638BB0A9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="1725" windowWidth="13485" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>order date</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -390,24 +420,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>order date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BY_DANI_TEA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10/24/2023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BY_DANI_TEA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10/24/2023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OT_NATURAL BODY WAVE 283032_CABL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10/24/2023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HZ_ISNBOS_F1B/BG</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10/24/2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BY_DANI_TEA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10/24/2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HZ_NYLA_HL280/44</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10/24/2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/appdata/order_history.xlsx
+++ b/appdata/order_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,102 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BY_DANI_TEA</t>
+          <t>OT_NEESHA H302_1B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/24/2023</t>
+          <t>10/26/2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BY_DANI_TEA</t>
+          <t>OT_LOOSE CURL 18_S4/30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/24/2023</t>
+          <t>10/26/2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>OT_NATURAL BODY WAVE 283032_CABL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>10/24/2023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HZ_ISNBOS_F1B/BG</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10/24/2023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BY_DANI_TEA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10/24/2023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HZ_NYLA_HL280/44</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10/24/2023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
     </row>

--- a/appdata/order_history.xlsx
+++ b/appdata/order_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,74 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AL_SASHA_1B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11/15/2023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BY_STB COGIC_M27/613</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11/15/2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>OT_ROLL UP 44PCS_33</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11/15/2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BY_AUSTIN_SP427</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11/15/2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/appdata/order_history.xlsx
+++ b/appdata/order_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,52 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OT_NEESHA H302_1B</t>
+          <t>AL_NAOMI_T14/88</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/26/2023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OT_LOOSE CURL 18_S4/30</t>
+          <t>AL_SASHA_1B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/26/2023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AL_SASHA_1B</t>
+          <t>BY_KOBY_T27B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/15/2023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -509,47 +503,86 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/15/2023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OT_ROLL UP 44PCS_33</t>
+          <t>HZ_HAYLIE_1B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11/15/2023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BY_AUSTIN_SP427</t>
+          <t>HZ_IDPWKS24_2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11/15/2023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>OT_ROLL UP 44PCS_280</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>OT_ROLL UP 44PCS_33</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OT_ROLL UP 44PCS_4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/appdata/order_history.xlsx
+++ b/appdata/order_history.xlsx
@@ -1,37 +1,297 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\내 드라이브\Inventory_Order_update\appdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044A6D5-69DF-46D0-A57E-90B05DB9B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="83">
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>order date</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>AL_NAOMI_T14/88</t>
+  </si>
+  <si>
+    <t>2023-11-13 00:00:00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>AL_SASHA_1B</t>
+  </si>
+  <si>
+    <t>11/21/2023</t>
+  </si>
+  <si>
+    <t>BY_KOBY_T27B</t>
+  </si>
+  <si>
+    <t>2023-11-15 00:00:00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>BY_STB COGIC_M27/613</t>
+  </si>
+  <si>
+    <t>2023-11-20 00:00:00</t>
+  </si>
+  <si>
+    <t>HZ_HAYLIE_1B</t>
+  </si>
+  <si>
+    <t>HZ_IDPWKS24_2</t>
+  </si>
+  <si>
+    <t>OT_ROLL UP 44PCS_280</t>
+  </si>
+  <si>
+    <t>OT_ROLL UP 44PCS_33</t>
+  </si>
+  <si>
+    <t>OT_ROLL UP 44PCS_4</t>
+  </si>
+  <si>
+    <t>AL_CECE_F1B30</t>
+  </si>
+  <si>
+    <t>AL_EASY BRAID 18_34</t>
+  </si>
+  <si>
+    <t>11/22/2023</t>
+  </si>
+  <si>
+    <t>AL_KERRY_3T44</t>
+  </si>
+  <si>
+    <t>AL_MISTY_3T51</t>
+  </si>
+  <si>
+    <t>AL_WATER WAVE 12"_51</t>
+  </si>
+  <si>
+    <t>BY_ABD KEANA_2</t>
+  </si>
+  <si>
+    <t>BY_AROL_4N274</t>
+  </si>
+  <si>
+    <t>BY_AUSTIN_SP427</t>
+  </si>
+  <si>
+    <t>BY_AUSTIN_SYRUP</t>
+  </si>
+  <si>
+    <t>BY_DAYNA_SP1B/30</t>
+  </si>
+  <si>
+    <t>BY_DOLLY_2</t>
+  </si>
+  <si>
+    <t>BY_MALIA_2</t>
+  </si>
+  <si>
+    <t>BY_MATA_SP427</t>
+  </si>
+  <si>
+    <t>BY_PEDY_SP427</t>
+  </si>
+  <si>
+    <t>BY_T2HB DENON_SP1B/30</t>
+  </si>
+  <si>
+    <t>HZ_EXOTIC_1B</t>
+  </si>
+  <si>
+    <t>HZ_JILL_HL530</t>
+  </si>
+  <si>
+    <t>HZ_KATE_DRBG</t>
+  </si>
+  <si>
+    <t>HZ_MILEY_1B</t>
+  </si>
+  <si>
+    <t>HZ_SB2XB48_3T2/30/27</t>
+  </si>
+  <si>
+    <t>HZ_UD 3_1B</t>
+  </si>
+  <si>
+    <t>HZ_VOGUE CROP_1B</t>
+  </si>
+  <si>
+    <t>IT_ANGELICA_TP1B/BURG</t>
+  </si>
+  <si>
+    <t>IT_AWESOME_P1B/30</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>IT_SWISS LACE NICO_P1B/30</t>
+  </si>
+  <si>
+    <t>NBF_PLF04_FS4/30</t>
+  </si>
+  <si>
+    <t>OT_ MEDIUM BOX BRAID 26"_2</t>
+  </si>
+  <si>
+    <t>OT_ PQWPNBF42_1B</t>
+  </si>
+  <si>
+    <t>OT_ PQWPNBF42_DR2T1B/2730</t>
+  </si>
+  <si>
+    <t>OT_3C WHIRLY LOOP_2</t>
+  </si>
+  <si>
+    <t>OT_AURYN_1B</t>
+  </si>
+  <si>
+    <t>OT_BRYNLEE_DRCHOSWI</t>
+  </si>
+  <si>
+    <t>OT_CLOSURE BLOWOUT STRAIGHT 12_NBRN</t>
+  </si>
+  <si>
+    <t>OT_DIVA WAVE LONG_DR2/27613</t>
+  </si>
+  <si>
+    <t>OT_DIVA WAVE LONG_DR2730</t>
+  </si>
+  <si>
+    <t>OT_DUBY XPRESS 12_1</t>
+  </si>
+  <si>
+    <t>OT_DUVESSA REMI YAKI 16_LT1B/433</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>OT_GOLD NATURAL STRAIGHT 16-18-20_NBLK</t>
+  </si>
+  <si>
+    <t>OT_GOLD OCEAN BODY 16-18-20_NBLK</t>
+  </si>
+  <si>
+    <t>OT_HWPBBDC24_30</t>
+  </si>
+  <si>
+    <t>OT_HWPBBNB24_NBLK</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>OT_HWPBBNB30_NBLK</t>
+  </si>
+  <si>
+    <t>OT_KNOTLESS TRIANGLE PART_DR4/2T27613</t>
+  </si>
+  <si>
+    <t>OT_LUXELINE NATURAL BODY 10_NBLK</t>
+  </si>
+  <si>
+    <t>OT_NIKAYA_2T1/2730</t>
+  </si>
+  <si>
+    <t>OT_NIKAYA_2T1/350</t>
+  </si>
+  <si>
+    <t>OT_NIKAYA_2T1/425</t>
+  </si>
+  <si>
+    <t>OT_PNY NEW YAKI 10_33</t>
+  </si>
+  <si>
+    <t>OT_QSBIMO_DR2730</t>
+  </si>
+  <si>
+    <t>OT_SOFT REGGAE BRAID_4</t>
+  </si>
+  <si>
+    <t>OT_SPIRALLY_4</t>
+  </si>
+  <si>
+    <t>OT_TEXTURED LOOSE CURL_DRCHOSWI</t>
+  </si>
+  <si>
+    <t>OT_TOMMY_1</t>
+  </si>
+  <si>
+    <t>OT_TOYA_1</t>
+  </si>
+  <si>
+    <t>OT_VELVET TARA 1-2-3_DBLU</t>
+  </si>
+  <si>
+    <t>VF_BP-LOUI_FS1B/33</t>
+  </si>
+  <si>
+    <t>VF_BRIE-V_99J</t>
+  </si>
+  <si>
+    <t>VF_ELSIE_613</t>
+  </si>
+  <si>
+    <t>VF_NATURE_4</t>
+  </si>
+  <si>
+    <t>VF_POCKET BUN 31_4</t>
+  </si>
+  <si>
+    <t>VF_POCKET BUN-LEMON_1B</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +306,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,168 +630,1101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sku</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>order date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>qty</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AL_NAOMI_T14/88</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AL_SASHA_1B</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BY_KOBY_T27B</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BY_STB COGIC_M27/613</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HZ_HAYLIE_1B</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HZ_IDPWKS24_2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OT_ROLL UP 44PCS_280</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>OT_ROLL UP 44PCS_33</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>OT_ROLL UP 44PCS_4</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11/21/2023</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
